--- a/GATEWAY/A1#111#WEBCENTRYRISXX/GE_Medical_System_Italia_SPA/WEBCENTRYRIS/1.25/report-checklist.xlsx
+++ b/GATEWAY/A1#111#WEBCENTRYRISXX/GE_Medical_System_Italia_SPA/WEBCENTRYRIS/1.25/report-checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11730" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -774,25 +773,25 @@
 Continuare comunque con la generazione del referto?</t>
   </si>
   <si>
-    <t>2025-02-28T11:19:31</t>
-  </si>
-  <si>
-    <t>5fbefebb8314ad78</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180101.4.4.21dbb26732944b49098e8bc6fa1266b3707691a6a7b44ca71792903ec59c814a.ffe1f11efb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-02-28T13:22:13</t>
-  </si>
-  <si>
-    <t>11de9482a0d198d4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180101.4.4.d1fa68a3493f3df958c3a85e79bfe885f801f067f57fbd0167ff8ca32af0860e.04288e2091^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.180101.4.4.9f61799a4536ff9bb33098a275bd94d12679e0b6a5484cdc8e7582b53212fce1.7f9c1702ee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-11T16:37:33</t>
+  </si>
+  <si>
+    <t>114c97199199e2e4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180101.4.4.357960146e181f072c606b1431caf2cae985cfea8d38dce518b8950e80250ead.b99af1c325^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-11T18:09:07</t>
+  </si>
+  <si>
+    <t>e1e2199b69f67452</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180101.4.4.0fdd104e3c79f7cda3b6abc890702b4feccb8c8a7e06603058a81b1a3d8e4710.3a50bd5781^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1733,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B996"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2802,11 +2801,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W608"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3790,7 +3789,7 @@
         <v>158</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J25" s="29" t="s">
         <v>51</v>
@@ -4108,16 +4107,16 @@
         <v>116</v>
       </c>
       <c r="F32" s="33">
-        <v>45716</v>
+        <v>45727</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J32" s="29" t="s">
         <v>51</v>
@@ -4155,16 +4154,16 @@
         <v>117</v>
       </c>
       <c r="F33" s="33">
-        <v>45716</v>
+        <v>45727</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J33" s="29" t="s">
         <v>51</v>
@@ -10786,6 +10785,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F560B38A5B3C4B41B1895754B1F1A56A" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="69dc0f489d46816a4b9bb4a327e14425">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca719f03-9e45-4ef4-9920-d156f53157f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7de9a44ff87fdcabda187bbd662e75de" ns2:_="">
     <xsd:import namespace="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
@@ -10957,15 +10965,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10977,6 +10976,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61CEF28A-E0A2-4D9D-9130-F7D0F35034F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10994,26 +11001,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#WEBCENTRYRISXX/GE_Medical_System_Italia_SPA/WEBCENTRYRIS/1.25/report-checklist.xlsx
+++ b/GATEWAY/A1#111#WEBCENTRYRISXX/GE_Medical_System_Italia_SPA/WEBCENTRYRIS/1.25/report-checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -692,12 +692,6 @@
     <t>subject_application_vendor: GE_MEDICAL_SYSTEM_ITALIA_SPA</t>
   </si>
   <si>
-    <t>2025-02-23T13:18:35</t>
-  </si>
-  <si>
-    <t>9c60ca9b602b6b34</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -728,70 +722,74 @@
     <t>Il codice fiscale viene automaticamente convertito in maiuscolo</t>
   </si>
   <si>
-    <t>2025-02-27T10:01:41</t>
-  </si>
-  <si>
-    <t>6d3f39b4199e1a59</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180101.4.4.022dd5df074a956beb6cbbc83af5ffbf2ff20215775ea822470582692c4a4f78.5beabf0c9d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Eccezione  durante la validazione del documento clinico FSE:
 "{title}": Errore vocabolario.
 "{detail}": È stata trovata almeno una versione non gestita di un dizionario: [2.16.840.1.113883.2.9.6.2.7 vISCO-08]
 Continuare comunque con la generazione del referto?</t>
   </si>
   <si>
-    <t>2025-02-27T18:26:23</t>
-  </si>
-  <si>
-    <t>f79f8018f0cf6b6f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eccezione  durante la validazione del documento clinico FSE:
-"{title}": Errore semantico.
-"{detail}": [ERRORE-b7| Sezione Dicom Object Catalog: La sezione deve avere l'elemento 'entry' di tipo 'act'.],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
-   LOINC @codeSystem='2.16.840.1.113883.6.1'
-   ICD-9-CM @codeSystem='2.16.840.1.113883.6.103']
-Continuare comunque con la generazione del referto?
-</t>
-  </si>
-  <si>
-    <t>2025-02-28T10:21:17</t>
-  </si>
-  <si>
-    <t>121cebbccab5e487</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180101.4.4.53b4fa66cebaa9f9c962c0132baaa7dfcea8c3f46484e029fc572f253f9f208d.3723285114^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Eccezione  durante la validazione del documento clinico FSE:
 "{title}": Errore vocabolario.
 "{detail}": Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 123.A]
 Continuare comunque con la generazione del referto?</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.180101.4.4.9f61799a4536ff9bb33098a275bd94d12679e0b6a5484cdc8e7582b53212fce1.7f9c1702ee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-11T16:37:33</t>
-  </si>
-  <si>
-    <t>114c97199199e2e4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180101.4.4.357960146e181f072c606b1431caf2cae985cfea8d38dce518b8950e80250ead.b99af1c325^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-11T18:09:07</t>
-  </si>
-  <si>
-    <t>e1e2199b69f67452</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180101.4.4.0fdd104e3c79f7cda3b6abc890702b4feccb8c8a7e06603058a81b1a3d8e4710.3a50bd5781^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-04-08T12:57:09</t>
+  </si>
+  <si>
+    <t>0a6a70036042d394</t>
+  </si>
+  <si>
+    <t>3086ec9083801c3d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180101.4.4.670e0e2292494cadea5a168257a01e73be38a92669967ab14409298b0321d566.c332999a73^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-04-08T16:42:10</t>
+  </si>
+  <si>
+    <t>52a7efbb6ca148e9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180101.4.4.041c4cb44f4c9bddbb450cb8b54dcb788e0c6dbe80fafdaf3b70dcc72290e617.fee1a722d1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eccezione  durante la validazione del documento clinico FSE:
+"{title}": Errore semantico.
+"{detail}":[ERRORE-b7| Sezione Dicom Object Catalog: La sezione deve avere l'elemento 'entry' di tipo 'act'.]
+Continuare comunque con la generazione del referto?
+</t>
+  </si>
+  <si>
+    <t>2025-04-08T16:51:12</t>
+  </si>
+  <si>
+    <t>1a73f68c02c8df9e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180101.4.4.8273370c48107f6985f1d1c99c71a0709a047011613197530a63a002f9501641.61b7c1783b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-04-08T16:58:14</t>
+  </si>
+  <si>
+    <t>9931fe049d4f2daf</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180101.4.4.951d2d320d2e41deb7c3530969885c8aca1ba9d3003e875ef79b5415eeb0fb10.05dd2e9b9b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-04-08T17:02:36</t>
+  </si>
+  <si>
+    <t>5c46ce011f6527da</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180101.4.4.3808f711ac84baf34bcf371ccfa56ea0c52f803b42391bb337159e83e3ea1f72.a97bdcfc3d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-04-08T16:06:21</t>
   </si>
 </sst>
 </file>
@@ -1732,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2801,11 +2799,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W608"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2813,7 +2811,7 @@
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" customWidth="1"/>
     <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
@@ -3109,16 +3107,16 @@
         <v>44</v>
       </c>
       <c r="F10" s="33">
-        <v>45711</v>
+        <v>45755</v>
       </c>
       <c r="G10" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" s="37" t="s">
         <v>145</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>147</v>
       </c>
       <c r="J10" s="29" t="s">
         <v>51</v>
@@ -3132,7 +3130,7 @@
         <v>51</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P10" s="29" t="s">
         <v>51</v>
@@ -3144,7 +3142,7 @@
         <v>93</v>
       </c>
       <c r="S10" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T10" s="29"/>
       <c r="U10" s="34"/>
@@ -3226,7 +3224,7 @@
         <v>51</v>
       </c>
       <c r="O12" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P12" s="29" t="s">
         <v>93</v>
@@ -3238,7 +3236,7 @@
         <v>93</v>
       </c>
       <c r="S12" s="29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="T12" s="29"/>
       <c r="U12" s="34" t="s">
@@ -3317,7 +3315,7 @@
         <v>104</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
@@ -3514,16 +3512,16 @@
         <v>122</v>
       </c>
       <c r="F19" s="33">
-        <v>45715</v>
+        <v>45755</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>51</v>
@@ -3537,7 +3535,7 @@
         <v>51</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P19" s="29" t="s">
         <v>51</v>
@@ -3549,7 +3547,7 @@
         <v>93</v>
       </c>
       <c r="S19" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T19" s="29"/>
       <c r="U19" s="34"/>
@@ -3780,7 +3778,7 @@
         <v>126</v>
       </c>
       <c r="F25" s="33">
-        <v>45715</v>
+        <v>45755</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>157</v>
@@ -3789,7 +3787,7 @@
         <v>158</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J25" s="29" t="s">
         <v>51</v>
@@ -3803,7 +3801,7 @@
         <v>51</v>
       </c>
       <c r="O25" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P25" s="29" t="s">
         <v>51</v>
@@ -3815,7 +3813,7 @@
         <v>93</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T25" s="29"/>
       <c r="U25" s="34"/>
@@ -4005,16 +4003,16 @@
         <v>132</v>
       </c>
       <c r="F30" s="33">
-        <v>45716</v>
+        <v>45755</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J30" s="29" t="s">
         <v>51</v>
@@ -4028,7 +4026,7 @@
         <v>51</v>
       </c>
       <c r="O30" s="29" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="P30" s="29" t="s">
         <v>51</v>
@@ -4040,7 +4038,7 @@
         <v>93</v>
       </c>
       <c r="S30" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T30" s="29"/>
       <c r="U30" s="34"/>
@@ -4107,16 +4105,16 @@
         <v>116</v>
       </c>
       <c r="F32" s="33">
-        <v>45727</v>
+        <v>45755</v>
       </c>
       <c r="G32" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="I32" s="37" t="s">
         <v>166</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>167</v>
       </c>
       <c r="J32" s="29" t="s">
         <v>51</v>
@@ -4154,16 +4152,16 @@
         <v>117</v>
       </c>
       <c r="F33" s="33">
-        <v>45727</v>
+        <v>45755</v>
       </c>
       <c r="G33" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="I33" s="37" t="s">
         <v>169</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>170</v>
       </c>
       <c r="J33" s="29" t="s">
         <v>51</v>
@@ -8607,7 +8605,7 @@
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10785,12 +10783,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10966,19 +10965,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11002,17 +11008,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#WEBCENTRYRISXX/GE_Medical_System_Italia_SPA/WEBCENTRYRIS/1.25/report-checklist.xlsx
+++ b/GATEWAY/A1#111#WEBCENTRYRISXX/GE_Medical_System_Italia_SPA/WEBCENTRYRIS/1.25/report-checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giuseppe\Wingla\REGIONI\PUGLIA\Tracciati\FSE\FSE_2\Certificazioni_SOGEI\GE_MEDICAL_SYSTEM\ACCREDITAMENTO\A1#111#WEBCENTRYRISXX\GE_Medical_System_Italia_SPA\WEBCENTRYRIS\1.25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giuseppe\REGIONI\GENERICO\FSE2\Certificazioni_SOGEI\GE_MEDICAL_SYSTEM\ACCREDITAMENTO\A1#111#WEBCENTRYRISXX\GE_Medical_System_Italia_SPA\WEBCENTRYRIS\1.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -689,9 +689,6 @@
     <t>subject_application_version: 1.25</t>
   </si>
   <si>
-    <t>subject_application_vendor: GE_MEDICAL_SYSTEM_ITALIA_SPA</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -790,6 +787,9 @@
   </si>
   <si>
     <t>2025-04-08T16:06:21</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: GE_Medical_System_Italia_SPA</t>
   </si>
 </sst>
 </file>
@@ -2800,10 +2800,10 @@
   <dimension ref="A1:W608"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2904,7 +2904,7 @@
       <c r="A4" s="45"/>
       <c r="B4" s="46"/>
       <c r="C4" s="49" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="4"/>
@@ -3110,13 +3110,13 @@
         <v>45755</v>
       </c>
       <c r="G10" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="33" t="s">
-        <v>154</v>
-      </c>
       <c r="I10" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J10" s="29" t="s">
         <v>51</v>
@@ -3130,7 +3130,7 @@
         <v>51</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P10" s="29" t="s">
         <v>51</v>
@@ -3142,7 +3142,7 @@
         <v>93</v>
       </c>
       <c r="S10" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T10" s="29"/>
       <c r="U10" s="34"/>
@@ -3224,7 +3224,7 @@
         <v>51</v>
       </c>
       <c r="O12" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P12" s="29" t="s">
         <v>93</v>
@@ -3236,7 +3236,7 @@
         <v>93</v>
       </c>
       <c r="S12" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T12" s="29"/>
       <c r="U12" s="34" t="s">
@@ -3315,7 +3315,7 @@
         <v>104</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
@@ -3515,13 +3515,13 @@
         <v>45755</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H19" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" s="37" t="s">
         <v>155</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>156</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>51</v>
@@ -3535,7 +3535,7 @@
         <v>51</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P19" s="29" t="s">
         <v>51</v>
@@ -3547,7 +3547,7 @@
         <v>93</v>
       </c>
       <c r="S19" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T19" s="29"/>
       <c r="U19" s="34"/>
@@ -3781,13 +3781,13 @@
         <v>45755</v>
       </c>
       <c r="G25" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="I25" s="37" t="s">
         <v>158</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>159</v>
       </c>
       <c r="J25" s="29" t="s">
         <v>51</v>
@@ -3801,7 +3801,7 @@
         <v>51</v>
       </c>
       <c r="O25" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P25" s="29" t="s">
         <v>51</v>
@@ -3813,7 +3813,7 @@
         <v>93</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T25" s="29"/>
       <c r="U25" s="34"/>
@@ -4006,13 +4006,13 @@
         <v>45755</v>
       </c>
       <c r="G30" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="I30" s="37" t="s">
         <v>162</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>163</v>
       </c>
       <c r="J30" s="29" t="s">
         <v>51</v>
@@ -4026,7 +4026,7 @@
         <v>51</v>
       </c>
       <c r="O30" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P30" s="29" t="s">
         <v>51</v>
@@ -4038,7 +4038,7 @@
         <v>93</v>
       </c>
       <c r="S30" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T30" s="29"/>
       <c r="U30" s="34"/>
@@ -4108,13 +4108,13 @@
         <v>45755</v>
       </c>
       <c r="G32" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="I32" s="37" t="s">
         <v>165</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>166</v>
       </c>
       <c r="J32" s="29" t="s">
         <v>51</v>
@@ -4155,13 +4155,13 @@
         <v>45755</v>
       </c>
       <c r="G33" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="I33" s="37" t="s">
         <v>168</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>169</v>
       </c>
       <c r="J33" s="29" t="s">
         <v>51</v>
@@ -10783,13 +10783,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10965,26 +10964,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11008,9 +11000,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#WEBCENTRYRISXX/GE_Medical_System_Italia_SPA/WEBCENTRYRIS/1.25/report-checklist.xlsx
+++ b/GATEWAY/A1#111#WEBCENTRYRISXX/GE_Medical_System_Italia_SPA/WEBCENTRYRIS/1.25/report-checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giuseppe\Wingla\REGIONI\PUGLIA\Tracciati\FSE\FSE_2\Certificazioni_SOGEI\GE_MEDICAL_SYSTEM\ACCREDITAMENTO\A1#111#WEBCENTRYRISXX\GE_Medical_System_Italia_SPA\WEBCENTRYRIS\1.25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giuseppe\REGIONI\GENERICO\FSE2\Certificazioni_SOGEI\GE_MEDICAL_SYSTEM\ACCREDITAMENTO\A1#111#WEBCENTRYRISXX\GE_Medical_System_Italia_SPA\WEBCENTRYRIS\1.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -689,9 +689,6 @@
     <t>subject_application_version: 1.25</t>
   </si>
   <si>
-    <t>subject_application_vendor: GE_MEDICAL_SYSTEM_ITALIA_SPA</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -734,27 +731,6 @@
 Continuare comunque con la generazione del referto?</t>
   </si>
   <si>
-    <t>2025-04-08T12:57:09</t>
-  </si>
-  <si>
-    <t>0a6a70036042d394</t>
-  </si>
-  <si>
-    <t>3086ec9083801c3d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180101.4.4.670e0e2292494cadea5a168257a01e73be38a92669967ab14409298b0321d566.c332999a73^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-08T16:42:10</t>
-  </si>
-  <si>
-    <t>52a7efbb6ca148e9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180101.4.4.041c4cb44f4c9bddbb450cb8b54dcb788e0c6dbe80fafdaf3b70dcc72290e617.fee1a722d1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eccezione  durante la validazione del documento clinico FSE:
 "{title}": Errore semantico.
 "{detail}":[ERRORE-b7| Sezione Dicom Object Catalog: La sezione deve avere l'elemento 'entry' di tipo 'act'.]
@@ -762,34 +738,58 @@
 </t>
   </si>
   <si>
-    <t>2025-04-08T16:51:12</t>
-  </si>
-  <si>
-    <t>1a73f68c02c8df9e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180101.4.4.8273370c48107f6985f1d1c99c71a0709a047011613197530a63a002f9501641.61b7c1783b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-08T16:58:14</t>
-  </si>
-  <si>
-    <t>9931fe049d4f2daf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180101.4.4.951d2d320d2e41deb7c3530969885c8aca1ba9d3003e875ef79b5415eeb0fb10.05dd2e9b9b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-08T17:02:36</t>
-  </si>
-  <si>
-    <t>5c46ce011f6527da</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180101.4.4.3808f711ac84baf34bcf371ccfa56ea0c52f803b42391bb337159e83e3ea1f72.a97bdcfc3d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-08T16:06:21</t>
+    <t>subject_application_vendor: GE_Medical_System_Italia_SPA</t>
+  </si>
+  <si>
+    <t>2025-05-12T17:27:16</t>
+  </si>
+  <si>
+    <t>592aea1031213d614be7aca99706c01b</t>
+  </si>
+  <si>
+    <t>2025-05-12T17:36:20</t>
+  </si>
+  <si>
+    <t>c4d599885b98ef8704ec3c080ab62d26</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180101.4.4.b00ac06fd8b852e490c51a415797e156760d93e1de1a9ddaefeff9024481dd6b.b8a9fa35d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-12T17:44:08</t>
+  </si>
+  <si>
+    <t>e4cbff6a4195dfaaf1c2e1929b0188cf</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180101.4.4.350e08953c82705b0e1faf24bb7ac27e38573c5cd1c6b9b8521a48ce0ff98dae.5435568a12^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-12T17:47:44</t>
+  </si>
+  <si>
+    <t>7d48f2321110d5660c25680cb9e262f8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180101.4.4.514b4218d0e0856d9356ab5d7368422b02c245839d6b5f3f8f736202708b26c6.b2894f016b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-12T18:08:15</t>
+  </si>
+  <si>
+    <t>a50f4cf17a17ad169c6cbd30dfd5675f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180101.4.4.ca9509ee3c9d531b3ac8c756535d67b3e28203dcc2118c87af7d5186e93229d1.6848b84c09^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-12T17:54:12</t>
+  </si>
+  <si>
+    <t>9fb817234634879753e01140b5f04ab1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180101.4.4.f3410a689e382c3d9e6e268902ae273d623a6f93fbad61590374041396940f69.2b89a48088^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2800,10 +2800,10 @@
   <dimension ref="A1:W608"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2904,7 +2904,7 @@
       <c r="A4" s="45"/>
       <c r="B4" s="46"/>
       <c r="C4" s="49" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="4"/>
@@ -3107,16 +3107,16 @@
         <v>44</v>
       </c>
       <c r="F10" s="33">
-        <v>45755</v>
+        <v>45789</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J10" s="29" t="s">
         <v>51</v>
@@ -3130,7 +3130,7 @@
         <v>51</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P10" s="29" t="s">
         <v>51</v>
@@ -3142,7 +3142,7 @@
         <v>93</v>
       </c>
       <c r="S10" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T10" s="29"/>
       <c r="U10" s="34"/>
@@ -3224,7 +3224,7 @@
         <v>51</v>
       </c>
       <c r="O12" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P12" s="29" t="s">
         <v>93</v>
@@ -3236,7 +3236,7 @@
         <v>93</v>
       </c>
       <c r="S12" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T12" s="29"/>
       <c r="U12" s="34" t="s">
@@ -3315,7 +3315,7 @@
         <v>104</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
@@ -3512,16 +3512,16 @@
         <v>122</v>
       </c>
       <c r="F19" s="33">
-        <v>45755</v>
+        <v>45789</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>51</v>
@@ -3535,7 +3535,7 @@
         <v>51</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P19" s="29" t="s">
         <v>51</v>
@@ -3547,7 +3547,7 @@
         <v>93</v>
       </c>
       <c r="S19" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T19" s="29"/>
       <c r="U19" s="34"/>
@@ -3778,16 +3778,16 @@
         <v>126</v>
       </c>
       <c r="F25" s="33">
-        <v>45755</v>
+        <v>45789</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J25" s="29" t="s">
         <v>51</v>
@@ -3801,7 +3801,7 @@
         <v>51</v>
       </c>
       <c r="O25" s="29" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="P25" s="29" t="s">
         <v>51</v>
@@ -3813,7 +3813,7 @@
         <v>93</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T25" s="29"/>
       <c r="U25" s="34"/>
@@ -4003,16 +4003,16 @@
         <v>132</v>
       </c>
       <c r="F30" s="33">
-        <v>45755</v>
+        <v>45789</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J30" s="29" t="s">
         <v>51</v>
@@ -4026,7 +4026,7 @@
         <v>51</v>
       </c>
       <c r="O30" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P30" s="29" t="s">
         <v>51</v>
@@ -4038,7 +4038,7 @@
         <v>93</v>
       </c>
       <c r="S30" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T30" s="29"/>
       <c r="U30" s="34"/>
@@ -4105,16 +4105,16 @@
         <v>116</v>
       </c>
       <c r="F32" s="33">
-        <v>45755</v>
+        <v>45789</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J32" s="29" t="s">
         <v>51</v>
@@ -4152,16 +4152,16 @@
         <v>117</v>
       </c>
       <c r="F33" s="33">
-        <v>45755</v>
+        <v>45789</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J33" s="29" t="s">
         <v>51</v>
@@ -10783,6 +10783,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
@@ -10792,7 +10801,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F560B38A5B3C4B41B1895754B1F1A56A" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="69dc0f489d46816a4b9bb4a327e14425">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca719f03-9e45-4ef4-9920-d156f53157f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7de9a44ff87fdcabda187bbd662e75de" ns2:_="">
     <xsd:import namespace="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
@@ -10964,16 +10973,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -10989,7 +10997,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61CEF28A-E0A2-4D9D-9130-F7D0F35034F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11007,14 +11015,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#WEBCENTRYRISXX/GE_Medical_System_Italia_SPA/WEBCENTRYRIS/1.25/report-checklist.xlsx
+++ b/GATEWAY/A1#111#WEBCENTRYRISXX/GE_Medical_System_Italia_SPA/WEBCENTRYRIS/1.25/report-checklist.xlsx
@@ -774,22 +774,22 @@
     <t>2.16.840.1.113883.2.9.2.180101.4.4.514b4218d0e0856d9356ab5d7368422b02c245839d6b5f3f8f736202708b26c6.b2894f016b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-05-12T18:08:15</t>
-  </si>
-  <si>
-    <t>a50f4cf17a17ad169c6cbd30dfd5675f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180101.4.4.ca9509ee3c9d531b3ac8c756535d67b3e28203dcc2118c87af7d5186e93229d1.6848b84c09^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-12T17:54:12</t>
-  </si>
-  <si>
-    <t>9fb817234634879753e01140b5f04ab1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180101.4.4.f3410a689e382c3d9e6e268902ae273d623a6f93fbad61590374041396940f69.2b89a48088^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-19T11:40:24</t>
+  </si>
+  <si>
+    <t>c6fa96cbdd6336881c13161e15c9897c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180101.4.4.67469dd812dedcc33be7363af1469af66f4e9c6137e13858c2b53193c90d7526.4a8c7a4781^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-20T12:33:37</t>
+  </si>
+  <si>
+    <t>5a793a42768537468b021353a58894f4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180101.4.4.325f8d645e6180f43dd749edbb4404bc74bb1202bfade24aaa5590d2bdecff66.98634e1547^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2800,10 +2800,10 @@
   <dimension ref="A1:W608"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4105,7 +4105,7 @@
         <v>116</v>
       </c>
       <c r="F32" s="33">
-        <v>45789</v>
+        <v>45796</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>165</v>
@@ -4152,7 +4152,7 @@
         <v>117</v>
       </c>
       <c r="F33" s="33">
-        <v>45789</v>
+        <v>45797</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>168</v>
@@ -10783,25 +10783,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F560B38A5B3C4B41B1895754B1F1A56A" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="69dc0f489d46816a4b9bb4a327e14425">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca719f03-9e45-4ef4-9920-d156f53157f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7de9a44ff87fdcabda187bbd662e75de" ns2:_="">
     <xsd:import namespace="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
@@ -10973,10 +10954,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61CEF28A-E0A2-4D9D-9130-F7D0F35034F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10998,19 +11008,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61CEF28A-E0A2-4D9D-9130-F7D0F35034F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#WEBCENTRYRISXX/GE_Medical_System_Italia_SPA/WEBCENTRYRIS/1.25/report-checklist.xlsx
+++ b/GATEWAY/A1#111#WEBCENTRYRISXX/GE_Medical_System_Italia_SPA/WEBCENTRYRIS/1.25/report-checklist.xlsx
@@ -774,22 +774,22 @@
     <t>2.16.840.1.113883.2.9.2.180101.4.4.514b4218d0e0856d9356ab5d7368422b02c245839d6b5f3f8f736202708b26c6.b2894f016b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-05-19T11:40:24</t>
-  </si>
-  <si>
-    <t>c6fa96cbdd6336881c13161e15c9897c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180101.4.4.67469dd812dedcc33be7363af1469af66f4e9c6137e13858c2b53193c90d7526.4a8c7a4781^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-20T12:33:37</t>
-  </si>
-  <si>
-    <t>5a793a42768537468b021353a58894f4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180101.4.4.325f8d645e6180f43dd749edbb4404bc74bb1202bfade24aaa5590d2bdecff66.98634e1547^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-23T09:11:12</t>
+  </si>
+  <si>
+    <t>a4a40a064998b02e2ba409d6fcb4b940</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180101.4.4.2e733a1ff838565ac0eeea0c36ec7d6b178f9a3a8faa3d31686156b6ce956914.9d91a16eb1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-23T09:08:18</t>
+  </si>
+  <si>
+    <t>f0254eb21b18200a9670a03219d8ccf9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180101.4.4.a430f5005672fe9d6056e5447a0e1681847c94a53e83b345b046f5e3e4b59926.35759dc7d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2800,10 +2800,10 @@
   <dimension ref="A1:W608"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4105,7 +4105,7 @@
         <v>116</v>
       </c>
       <c r="F32" s="33">
-        <v>45796</v>
+        <v>45800</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>165</v>
@@ -4152,7 +4152,7 @@
         <v>117</v>
       </c>
       <c r="F33" s="33">
-        <v>45797</v>
+        <v>45800</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>168</v>
@@ -10783,6 +10783,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F560B38A5B3C4B41B1895754B1F1A56A" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="69dc0f489d46816a4b9bb4a327e14425">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca719f03-9e45-4ef4-9920-d156f53157f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7de9a44ff87fdcabda187bbd662e75de" ns2:_="">
     <xsd:import namespace="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
@@ -10954,39 +10973,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61CEF28A-E0A2-4D9D-9130-F7D0F35034F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11008,9 +10998,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61CEF28A-E0A2-4D9D-9130-F7D0F35034F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
